--- a/data/trans_orig/IFINALC_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IFINALC_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9429B129-E220-472E-9BD5-0695C7670888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B2D1B5-733A-44D2-A069-CC41B85C844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F05CBEF-53EF-4C11-B2F4-03D8DB09EB7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4893310-8380-457A-A8E0-6EBE934B0784}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="158">
   <si>
     <t>Adulto entrevistado según su comprensión general del cuestionario en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Regular</t>
@@ -92,25 +92,25 @@
     <t>11,11%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -119,16 +119,16 @@
     <t>88,89%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>79,15%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -137,28 +137,28 @@
     <t>91,79%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -167,64 +167,64 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -233,286 +233,280 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,2%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>8,87%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>82,24%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27638D6-1C79-41FB-B701-974E971D92D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D58E5-4B6C-470B-8EB8-7993A85410AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1962,7 +1956,7 @@
         <v>122</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1971,13 @@
         <v>159041</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -1992,13 +1986,13 @@
         <v>153101</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -2007,13 +2001,13 @@
         <v>312142</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2075,13 @@
         <v>2647</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2096,13 +2090,13 @@
         <v>3215</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -2111,13 +2105,13 @@
         <v>5862</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2126,13 @@
         <v>104970</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -2147,13 +2141,13 @@
         <v>93245</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>292</v>
@@ -2162,13 +2156,13 @@
         <v>198214</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2177,13 @@
         <v>618087</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="H26" s="7">
         <v>790</v>
@@ -2198,13 +2192,13 @@
         <v>555224</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>1618</v>
@@ -2213,13 +2207,13 @@
         <v>1173312</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2269,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IFINALC_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IFINALC_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B2D1B5-733A-44D2-A069-CC41B85C844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08219ECF-D6E8-4361-8F78-21E9AE7948E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4893310-8380-457A-A8E0-6EBE934B0784}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C6DBD951-6406-4D34-8201-5A9ED63C61B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>Adulto entrevistado según su comprensión general del cuestionario en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,448 +65,388 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -921,8 +861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D58E5-4B6C-470B-8EB8-7993A85410AB}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C060A7E7-F095-4686-9867-61DE6C3049B4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1039,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1054,136 +994,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>1411</v>
+        <v>19526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>1010</v>
+        <v>22003</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>2421</v>
+        <v>41530</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="D6" s="7">
-        <v>11287</v>
+        <v>97026</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I6" s="7">
-        <v>15777</v>
+        <v>117425</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="N6" s="7">
-        <v>27064</v>
+        <v>214452</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1192,204 +1132,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>946</v>
+        <v>164</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
-        <v>717</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
       <c r="N8" s="7">
-        <v>1663</v>
+        <v>164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7">
-        <v>19282</v>
+        <v>22057</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
         <v>46</v>
       </c>
-      <c r="H9" s="7">
-        <v>35</v>
-      </c>
       <c r="I9" s="7">
-        <v>18824</v>
+        <v>32265</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="N9" s="7">
-        <v>38106</v>
+        <v>54321</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D10" s="7">
-        <v>94368</v>
+        <v>168291</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="I10" s="7">
-        <v>84354</v>
+        <v>222770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>254</v>
+        <v>540</v>
       </c>
       <c r="N10" s="7">
-        <v>178720</v>
+        <v>391063</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,63 +1338,63 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1463,139 +1403,139 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>159</v>
+        <v>1894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>159</v>
+        <v>3065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>30974</v>
+        <v>35035</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>22632</v>
+        <v>40928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>53606</v>
+        <v>75963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7">
-        <v>219212</v>
+        <v>153379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>169561</v>
+        <v>142464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>540</v>
+        <v>356</v>
       </c>
       <c r="N14" s="7">
-        <v>388773</v>
+        <v>295843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,204 +1544,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1701</v>
+        <v>1170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1156</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>2857</v>
+        <v>1170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>37327</v>
+        <v>15704</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>34315</v>
+        <v>15934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>71642</v>
+        <v>31638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>134180</v>
+        <v>149898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="I18" s="7">
-        <v>132431</v>
+        <v>165304</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="N18" s="7">
-        <v>266611</v>
+        <v>315202</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,204 +1750,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>166772</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="N19" s="7">
-        <v>341110</v>
+        <v>348010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1183</v>
+        <v>2878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>1183</v>
+        <v>6110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D21" s="7">
-        <v>15975</v>
+        <v>92322</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>16464</v>
+        <v>111130</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="N21" s="7">
-        <v>32439</v>
+        <v>203452</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>214</v>
+        <v>790</v>
       </c>
       <c r="D22" s="7">
-        <v>159041</v>
+        <v>568596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>212</v>
+        <v>828</v>
       </c>
       <c r="I22" s="7">
-        <v>153101</v>
+        <v>647965</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
-        <v>426</v>
+        <v>1618</v>
       </c>
       <c r="N22" s="7">
-        <v>312142</v>
+        <v>1216561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,268 +1956,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>664150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>239</v>
+        <v>977</v>
       </c>
       <c r="I23" s="7">
-        <v>170748</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>477</v>
+        <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>345764</v>
+        <v>1426122</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2647</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3215</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="A24" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="7">
-        <v>8</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5862</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>146</v>
-      </c>
-      <c r="D25" s="7">
-        <v>104970</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="7">
-        <v>146</v>
-      </c>
-      <c r="I25" s="7">
-        <v>93245</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="7">
-        <v>292</v>
-      </c>
-      <c r="N25" s="7">
-        <v>198214</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7">
-        <v>828</v>
-      </c>
-      <c r="D26" s="7">
-        <v>618087</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="7">
-        <v>790</v>
-      </c>
-      <c r="I26" s="7">
-        <v>555224</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1618</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1173312</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>977</v>
-      </c>
-      <c r="D27" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7">
-        <v>941</v>
-      </c>
-      <c r="I27" s="7">
-        <v>651684</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1377388</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
